--- a/P1/wf_Meta/test_sheets/Wham Bam Shangalang.xlsx
+++ b/P1/wf_Meta/test_sheets/Wham Bam Shangalang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature_Program\Michael-Lozano-P1\P1\wf_Meta\test_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE8D0E5-8FD2-4429-B660-A3866DEAE04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B6817A-2E49-4298-85CC-57882D932305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23010" yWindow="345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26070" yWindow="-1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <t>Veggie Spread</t>
   </si>
   <si>
-    <t>Chai</t>
-  </si>
-  <si>
     <t>Steeleye Stout</t>
   </si>
   <si>
-    <t>Chang</t>
+    <t>Sasquatch Ale</t>
+  </si>
+  <si>
+    <t>Sirop d'erable</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,10 +381,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -392,31 +392,31 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
